--- a/Output/May/productivity_TL/productivity_TL_2022-05-03.xlsx
+++ b/Output/May/productivity_TL/productivity_TL_2022-05-03.xlsx
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T9">
-        <v>0.03846153846153846</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T11">
-        <v>0.03703703703703703</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T17">
-        <v>0.03225806451612903</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1677,13 +1677,13 @@
         <v>8.85</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>0.03571428571428571</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E2">
         <v>1</v>
